--- a/data/trans_dic/iP22_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 22,81</t>
+          <t>10,1; 22,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 40,25</t>
+          <t>23,64; 40,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 19,04</t>
+          <t>6,85; 20,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 29,47</t>
+          <t>9,12; 28,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,94; 20,22</t>
+          <t>7,86; 19,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 30,54</t>
+          <t>16,68; 30,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 26,17</t>
+          <t>10,41; 26,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 29,32</t>
+          <t>6,62; 29,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,83; 19,41</t>
+          <t>10,4; 19,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 32,5</t>
+          <t>21,83; 32,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 19,73</t>
+          <t>10,01; 19,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 23,93</t>
+          <t>10,11; 25,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 24,89</t>
+          <t>18,57; 24,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,49; 31,26</t>
+          <t>24,52; 31,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,83</t>
+          <t>14,28; 19,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,23</t>
+          <t>11,38; 17,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,98</t>
+          <t>18,02; 24,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,65; 26,31</t>
+          <t>20,31; 26,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,06</t>
+          <t>14,45; 19,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,74</t>
+          <t>11,04; 16,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,08; 23,55</t>
+          <t>19,05; 23,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,42; 28,04</t>
+          <t>23,49; 28,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,89</t>
+          <t>15,03; 18,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 15,94</t>
+          <t>12,17; 15,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 30,82</t>
+          <t>20,41; 30,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 30,05</t>
+          <t>19,58; 30,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 23,91</t>
+          <t>13,91; 22,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 22,57</t>
+          <t>12,19; 22,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 23,98</t>
+          <t>14,4; 24,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,6; 30,88</t>
+          <t>20,04; 30,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 24,65</t>
+          <t>15,13; 25,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,87</t>
+          <t>14,29; 24,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 25,28</t>
+          <t>18,18; 26,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,91; 28,75</t>
+          <t>21,37; 28,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 22,22</t>
+          <t>15,64; 22,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 22,24</t>
+          <t>14,98; 22,84</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,43; 24,01</t>
+          <t>19,07; 24,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 30,38</t>
+          <t>24,86; 30,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,04</t>
+          <t>14,48; 19,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,01; 17,87</t>
+          <t>13,0; 17,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 21,91</t>
+          <t>16,93; 21,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,39</t>
+          <t>21,15; 26,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,5; 19,74</t>
+          <t>15,4; 20,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,52</t>
+          <t>12,69; 17,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,91; 22,2</t>
+          <t>18,94; 22,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 27,8</t>
+          <t>23,78; 27,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,67</t>
+          <t>15,71; 18,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,35; 16,88</t>
+          <t>13,46; 16,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP22_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP22_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,88%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>8,75; 20,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>15,86; 30,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,5; 27,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,46; 46,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,07; 22,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,28; 40,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,17; 19,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>11,04; 30,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>10,34; 19,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>21,24; 32,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,22; 20,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>11,81; 32,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 22,87</t>
+          <t>18,21; 24,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,64; 40,43</t>
+          <t>19,98; 26,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 20,0</t>
+          <t>14,19; 19,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 28,83</t>
+          <t>10,51; 17,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 19,93</t>
+          <t>19,01; 25,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 30,41</t>
+          <t>24,4; 31,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 26,68</t>
+          <t>14,21; 20,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 29,37</t>
+          <t>11,33; 17,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 19,12</t>
+          <t>19,07; 23,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,83; 32,28</t>
+          <t>23,41; 28,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 19,69</t>
+          <t>15,08; 19,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 25,46</t>
+          <t>11,55; 16,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>18,59%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 24,75</t>
+          <t>14,48; 24,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,72</t>
+          <t>19,87; 30,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,28; 19,92</t>
+          <t>15,11; 24,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,21</t>
+          <t>14,94; 25,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,02; 24,05</t>
+          <t>20,07; 31,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 26,65</t>
+          <t>19,2; 30,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,45; 19,86</t>
+          <t>13,98; 23,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 16,46</t>
+          <t>12,82; 23,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,05; 23,54</t>
+          <t>18,45; 25,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,49; 28,45</t>
+          <t>20,99; 29,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 18,97</t>
+          <t>15,28; 21,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 15,94</t>
+          <t>15,23; 22,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>15,44%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 30,51</t>
+          <t>17,06; 21,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 30,22</t>
+          <t>21,26; 26,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 22,85</t>
+          <t>15,45; 19,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 22,12</t>
+          <t>12,7; 18,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 24,19</t>
+          <t>19,34; 24,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 30,72</t>
+          <t>24,92; 30,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 25,08</t>
+          <t>14,51; 19,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 24,47</t>
+          <t>13,18; 18,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 26,01</t>
+          <t>18,68; 22,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,37; 28,75</t>
+          <t>23,69; 27,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,57</t>
+          <t>15,63; 18,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,84</t>
+          <t>13,6; 17,53</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>27,56%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16,74%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,01%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,33%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>17,62%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>25,64%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>17,16%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>15,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>19,07; 24,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>24,86; 30,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>14,48; 19,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>13,0; 17,96</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>16,93; 21,66</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>21,15; 26,62</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>15,4; 20,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>12,69; 17,43</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>18,94; 22,29</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>23,78; 27,67</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>15,71; 18,87</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>13,46; 16,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
